--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selinium Folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10632" windowHeight="7740" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
     <sheet name="MultipleOrganizations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
-  <si>
-    <t>Tc_Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>TC_ID</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
     <t>CreateOrganization</t>
   </si>
   <si>
@@ -57,49 +47,73 @@
     <t>Qspiders</t>
   </si>
   <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>CreateOrganizationwithindustry</t>
-  </si>
-  <si>
-    <t>IndustryDropdown</t>
-  </si>
-  <si>
     <t>Chemicals</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>CreateOrganizationwithindustryAndType</t>
-  </si>
-  <si>
-    <t>TypeDropdown</t>
-  </si>
-  <si>
     <t>Press</t>
   </si>
   <si>
-    <t>Chaitra</t>
-  </si>
-  <si>
     <t>CreateContact</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>CreateContactWithOrganization</t>
   </si>
   <si>
-    <t>wipro</t>
-  </si>
-  <si>
     <t>Wipro</t>
   </si>
   <si>
     <t>IndustryName</t>
+  </si>
+  <si>
+    <t>TC_Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>LeadSource DropDown</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>CreateContactWithLeadSource</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Orgname</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>CreateOrganizationWithIndustry</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>CreateOrganizationWithIndustryAndType</t>
   </si>
 </sst>
 </file>
@@ -115,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +498,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,87 +510,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -579,67 +603,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -662,18 +718,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
